--- a/0_data/iButton_sources.xlsx
+++ b/0_data/iButton_sources.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Projects/climate_downscaling/0_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BD1F670-DF51-3643-A949-CDCA1DEDB403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B3F31C-6C78-A348-A478-E166A5214F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41800" yWindow="1300" windowWidth="27640" windowHeight="16940" xr2:uid="{EFD0BBFA-BD8A-6D41-ACC1-50C680126E8F}"/>
+    <workbookView xWindow="41800" yWindow="2300" windowWidth="27640" windowHeight="16940" xr2:uid="{EFD0BBFA-BD8A-6D41-ACC1-50C680126E8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Project code</t>
   </si>
@@ -62,12 +62,6 @@
     <t>Alberta</t>
   </si>
   <si>
-    <t>Wood, W.H., Marshall, S.J., Fargey, S.E., Whitehead, T.L., 2017. Daily temperature data from the foothills climate array mesonet, canadian rocky mountains, 2005-2010. https://doi.org/10.1594/PANGAEA.880611</t>
-  </si>
-  <si>
-    <t>Estevo, C.A., Stralberg, D., Nielsen, S.E., Bayne, E., 2022. Topographic and vegetation drivers of thermal heterogeneity along the boreal–grassland transition zone in western Canada: Implications for climate change refugia. Ecology and Evolution 12, e9008. https://doi.org/10.1002/ece3.9008</t>
-  </si>
-  <si>
     <t>Time frame</t>
   </si>
   <si>
@@ -78,24 +72,25 @@
   </si>
   <si>
     <t>2018-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @wood2017dtdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @estevoTopographicVegetationDrivers2022</t>
+  </si>
+  <si>
+    <t>ALEX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -118,16 +113,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -440,16 +432,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46487B63-ECFE-1341-8A43-15D2ABAEAC47}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="67.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -460,7 +455,7 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -477,13 +472,13 @@
         <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
+      <c r="E2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -494,7 +489,10 @@
         <v>152</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -505,20 +503,30 @@
         <v>232</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>41</v>
+      </c>
+      <c r="C5">
+        <v>2020</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" display="https://doi.org/10.1594/PANGAEA.880611" xr:uid="{660B7E50-08B1-0B4B-885F-B347358A773A}"/>
-    <hyperlink ref="E2" r:id="rId2" display="https://doi.org/10.1002/ece3.9008" xr:uid="{661A21D7-4E25-CC47-A400-50839C1019BB}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>